--- a/AfDD_2025_Annex_Table_Sources.xlsx
+++ b/AfDD_2025_Annex_Table_Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\DUMMY FILES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4780EA11-335A-4F85-94A6-B570A6565FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A257CF63-A2B0-47F9-B1BC-0020010E5EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{39047A2C-F31B-4337-B9DB-D58C992C946A}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{EFCD1BF5-344A-47D4-B96F-CEEECB30614E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
   <si>
     <t>List of sources</t>
   </si>
@@ -50,28 +50,40 @@
     <t>URL</t>
   </si>
   <si>
+    <t>AfDD 2025 Indicators of infrastructure quality</t>
+  </si>
+  <si>
+    <t>OECD Development Centre</t>
+  </si>
+  <si>
+    <t>Released October 1, 2025</t>
+  </si>
+  <si>
+    <t>www.oecd.org/en/publications/africa-s-development-dynamics_3290877b-en.html</t>
+  </si>
+  <si>
     <t>BACI: International Trade Database at the Product-Level.</t>
   </si>
   <si>
     <t>Centre d'Etudes Prospectives et d'Informations Internationales (CEPII)</t>
   </si>
   <si>
-    <t>Updated 01/02/2023</t>
+    <t>Updated 30/01/2025</t>
   </si>
   <si>
     <t>www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
-    <t>Changing Wealth of Nations (CWON) 2021</t>
+    <t>Changing Wealth of Nations (CWON) 2024</t>
   </si>
   <si>
     <t>World Bank</t>
   </si>
   <si>
-    <t>October 27, 2021</t>
-  </si>
-  <si>
-    <t>www.worldbank.org/en/publication/changing-wealth-of-nations/data</t>
+    <t>Updated 07/03/2025</t>
+  </si>
+  <si>
+    <t>https://data360.worldbank.org/en/dataset/WB_CWON</t>
   </si>
   <si>
     <t>ESCAP-World Bank Trade Cost Database</t>
@@ -80,10 +92,10 @@
     <t>United Nations and World Bank</t>
   </si>
   <si>
-    <t>Updated 17/05/2022</t>
-  </si>
-  <si>
-    <t>www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+    <t>Updated 13/08/2025</t>
+  </si>
+  <si>
+    <t>www.unESCAP.org/resources/ESCAP-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>FAOStat online data, Food and Agriculture Organization of the United Nations</t>
@@ -128,235 +140,217 @@
     <t>Welthungerhilfe and Concern Worldwide</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>www.globalhungerindex.org/results.html</t>
+  </si>
+  <si>
+    <t>GSMA Intelligence data</t>
+  </si>
+  <si>
+    <t>GSMA Intelligence</t>
+  </si>
+  <si>
+    <t>Data updated June 2020 (fee required)</t>
+  </si>
+  <si>
+    <t>www.gsmaintelligence.com/data/</t>
+  </si>
+  <si>
+    <t>IMF Balance of Paytments and International Investment Position Statistics (IMF/IIP)</t>
+  </si>
+  <si>
+    <t>International Monetary Fund (IMF)</t>
+  </si>
+  <si>
+    <t>Publication date 12/09/2025</t>
+  </si>
+  <si>
+    <t>https://data.imf.org/en/Search-Results#q=icsd&amp;t=coveob02de888&amp;sort=relevancy</t>
+  </si>
+  <si>
+    <t>IMF Investment and Capital Stock (ICSD)</t>
+  </si>
+  <si>
+    <t>Updated 27/10/2023</t>
+  </si>
+  <si>
+    <t>https://data.imf.org/?sk=1CE8A55F-CFA7-4BC0-BCE2-256EE65AC0E4</t>
+  </si>
+  <si>
+    <t>IMF World Economic Outlook Database</t>
+  </si>
+  <si>
+    <t>April 2024</t>
+  </si>
+  <si>
+    <t>www.imf.org/en/Publications/WEO/weo-database/2024/April</t>
+  </si>
+  <si>
+    <t>Informality Database (Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2021. “Understanding Informality.” CERP Discussion Paper 16497)</t>
+  </si>
+  <si>
+    <t>Centre for Economic Policy Research</t>
+  </si>
+  <si>
+    <t>09/01/2024</t>
+  </si>
+  <si>
+    <t>www.worldbank.org/en/research/brief/informal-economy-database</t>
+  </si>
+  <si>
+    <t>International Labour Organization - ILOSTAT</t>
+  </si>
+  <si>
+    <t>International Labour Organization (ILO)</t>
+  </si>
+  <si>
+    <t>Retrieved 09/09/2025</t>
+  </si>
+  <si>
+    <t>www.ilo.org/ilostat</t>
+  </si>
+  <si>
+    <t>International Telecommunication Union - ICT Indicators Online Database</t>
+  </si>
+  <si>
+    <t>International Telecommunication Union</t>
+  </si>
+  <si>
+    <t>Retrieved 05/09/2025</t>
+  </si>
+  <si>
+    <t>https://datahub.itu.int/data/</t>
+  </si>
+  <si>
+    <t>IRENASTAT</t>
+  </si>
+  <si>
+    <t>International Renewable Energy Agency (IRENA)</t>
+  </si>
+  <si>
+    <t>Updated 23/07/2025</t>
+  </si>
+  <si>
+    <t>www.irena.org/Data</t>
+  </si>
+  <si>
+    <t>OECD/GBD dataset on mortality, morbidity and welfare cost from exposure to environment-related risks</t>
+  </si>
+  <si>
+    <t>OECD and Institute for Health Metrics and Evaluation</t>
+  </si>
+  <si>
+    <t>Updated 20/12/2020</t>
+  </si>
+  <si>
+    <t>https://data-explorer.oecd.org/s/2ri</t>
+  </si>
+  <si>
+    <t>Official Development Assistance (ODA) reported by OECD Development Assistance Committee</t>
+  </si>
+  <si>
+    <t>OECD Development Assessment Committee (DAC)</t>
+  </si>
+  <si>
+    <t>Updated 01/09/2025</t>
+  </si>
+  <si>
+    <t>https://data-explorer.oecd.org/</t>
+  </si>
+  <si>
+    <t>Social Institutions and Gender Index (SIGI) 2023</t>
+  </si>
+  <si>
+    <t>March 2023</t>
+  </si>
+  <si>
+    <t>www.genderindex.org/data/</t>
+  </si>
+  <si>
+    <t>UNCTAD B2C E-Commerce Index</t>
+  </si>
+  <si>
+    <t>UNCTAD</t>
+  </si>
+  <si>
+    <t>https://unctad.org/fr/node/3007</t>
+  </si>
+  <si>
+    <t>UNCTAD-Eora Global Value Chain (GVC) database</t>
+  </si>
+  <si>
+    <t>UNCTAD-Eora</t>
+  </si>
+  <si>
+    <t>Accessed 19/11/2022</t>
+  </si>
+  <si>
+    <t>https://worldmrio.com/unctadgvc/</t>
+  </si>
+  <si>
+    <t>UNCTADStat Online Data Centre, FDI Online Database</t>
+  </si>
+  <si>
+    <t>Updated 22/09/2023</t>
+  </si>
+  <si>
+    <t>http://unctadstat.unctad.org/wds/ReportFolders/reportFolders.aspx?sCS_ChosenLang=en</t>
+  </si>
+  <si>
+    <t>UNESCO Global Education Monitoring Report 2021/22</t>
+  </si>
+  <si>
+    <t>UNESCO</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>www.unesco.org/gem-report/en/non-state-actors</t>
+  </si>
+  <si>
+    <t>UNESCO Institute for Statistics (UIS) Database</t>
+  </si>
+  <si>
+    <t>Updated 19/08/2025</t>
+  </si>
+  <si>
+    <t>http://data.uis.unesco.org/Index.aspx</t>
+  </si>
+  <si>
+    <t>United Nations Development Programme Human Development Data Online</t>
+  </si>
+  <si>
+    <t>UNDP</t>
+  </si>
+  <si>
+    <t>http://hdr.undp.org/en/data</t>
+  </si>
+  <si>
+    <t>United Nations Statistics Division National Accounts</t>
+  </si>
+  <si>
+    <t>United Nations Statistics Division (UNSD)</t>
+  </si>
+  <si>
+    <t>Updated January 1, 2025</t>
+  </si>
+  <si>
+    <t>https://unstats.un.org/unsd/snaama/</t>
+  </si>
+  <si>
+    <t>Wittgenstein Centre Human Capital Data Explorer</t>
+  </si>
+  <si>
+    <t>Wittgenstein Centre for Demography and Global Human Capital</t>
+  </si>
+  <si>
     <t>2023</t>
   </si>
   <si>
-    <t>www.globalhungerindex.org/download/all.html</t>
-  </si>
-  <si>
-    <t>Global Knowledge Partnership on Migration and Development (KNOMAD)</t>
-  </si>
-  <si>
-    <t>World Bank-KNOMAD</t>
-  </si>
-  <si>
-    <t>December 2023</t>
-  </si>
-  <si>
-    <t>www.knomad.org/</t>
-  </si>
-  <si>
-    <t>GSMA Intelligence data</t>
-  </si>
-  <si>
-    <t>GSMA Intelligence</t>
-  </si>
-  <si>
-    <t>Data updated June 2020 (fee required)</t>
-  </si>
-  <si>
-    <t>www.gsmaintelligence.com/data/</t>
-  </si>
-  <si>
-    <t>IMF Balance of Paytments and International Investment Position Statistics (IMF/IIP)</t>
-  </si>
-  <si>
-    <t>International Monetary Fund (IMF)</t>
-  </si>
-  <si>
-    <t>Updated 25/10/2023</t>
-  </si>
-  <si>
-    <t>https://data.imf.org/?sk=7A51304B-6426-40C0-83DD-CA473CA1FD52</t>
-  </si>
-  <si>
-    <t>IMF Investment and Capital Stock (ICSD)</t>
-  </si>
-  <si>
-    <t>Updated 27/10/2023</t>
-  </si>
-  <si>
-    <t>https://data.imf.org/?sk=1CE8A55F-CFA7-4BC0-BCE2-256EE65AC0E4</t>
-  </si>
-  <si>
-    <t>IMF World Economic Outlook Database</t>
-  </si>
-  <si>
-    <t>October 2023</t>
-  </si>
-  <si>
-    <t>www.imf.org/en/Publications/WEO/weo-database/2022/October</t>
-  </si>
-  <si>
-    <t>Informality Database (Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2021. “Understanding Informality.” CERP Discussion Paper 16497)</t>
-  </si>
-  <si>
-    <t>Centre for Economic Policy Research</t>
-  </si>
-  <si>
-    <t>09/01/2024</t>
-  </si>
-  <si>
-    <t>www.worldbank.org/en/research/brief/informal-economy-database</t>
-  </si>
-  <si>
-    <t>International Labour Organization - ILOSTAT</t>
-  </si>
-  <si>
-    <t>International Labour Organization (ILO)</t>
-  </si>
-  <si>
-    <t>Various datasets, downloaded after November, 2023</t>
-  </si>
-  <si>
-    <t>www.ilo.org/ilostat</t>
-  </si>
-  <si>
-    <t>International Telecommunication Union - ICT Indicators Online Database</t>
-  </si>
-  <si>
-    <t>International Telecommunication Union</t>
-  </si>
-  <si>
-    <t>Retrieved 02/02/2024</t>
-  </si>
-  <si>
-    <t>www.itu.int/en/ITU-D/Statistics/Pages/stat/default.aspx</t>
-  </si>
-  <si>
-    <t>OECD/GBD dataset on mortality, morbidity and welfare cost from exposure to environment-related risks</t>
-  </si>
-  <si>
-    <t>OECD and Institute for Health Metrics and Evaluation</t>
-  </si>
-  <si>
-    <t>Updated 20/12/2020</t>
-  </si>
-  <si>
-    <t>https://stats.oecd.org/Index.aspx?QueryId=90835</t>
-  </si>
-  <si>
-    <t>Official Development Assistance (ODA) reported by OECD Development Assistance Committee</t>
-  </si>
-  <si>
-    <t>OECD Development Assessment Committee (DAC)</t>
-  </si>
-  <si>
-    <t>Updated 22/12/2023</t>
-  </si>
-  <si>
-    <t>https://stats-1.oecd.org/Index.aspx?DataSetCode=TABLE2A</t>
-  </si>
-  <si>
-    <t>Renewable Energy Statistics 2022</t>
-  </si>
-  <si>
-    <t>International Renewable Energy Agency (IRENA)</t>
-  </si>
-  <si>
-    <t>Retrieved 06/10/2022</t>
-  </si>
-  <si>
-    <t>www.irena.org/Data</t>
-  </si>
-  <si>
-    <t>Social Institutions and Gender Index (SIGI) 2023</t>
-  </si>
-  <si>
-    <t>OECD Development Centre</t>
-  </si>
-  <si>
-    <t>March 2023</t>
-  </si>
-  <si>
-    <t>www.genderindex.org/data/</t>
-  </si>
-  <si>
-    <t>UNCTAD B2C E-Commerce Index</t>
-  </si>
-  <si>
-    <t>UNCTAD</t>
-  </si>
-  <si>
-    <t>https://unctad.org/fr/node/3007</t>
-  </si>
-  <si>
-    <t>UNCTAD-Eora Global Value Chain (GVC) database</t>
-  </si>
-  <si>
-    <t>UNCTAD-Eora</t>
-  </si>
-  <si>
-    <t>Accessed 19/11/2022</t>
-  </si>
-  <si>
-    <t>https://worldmrio.com/unctadgvc/</t>
-  </si>
-  <si>
-    <t>UNCTADStat Online Data Centre, FDI Online Database</t>
-  </si>
-  <si>
-    <t>Updated 22/09/2023</t>
-  </si>
-  <si>
-    <t>http://unctadstat.unctad.org/wds/ReportFolders/reportFolders.aspx?sCS_ChosenLang=en</t>
-  </si>
-  <si>
-    <t>UNESCO Global Education Monitoring Report 2021/22</t>
-  </si>
-  <si>
-    <t>UNESCO</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>https://www.unesco.org/gem-report/en/non-state-actors</t>
-  </si>
-  <si>
-    <t>UNESCO Institute for Statistics (UIS) Database</t>
-  </si>
-  <si>
-    <t>Retrieved 17/11/2021</t>
-  </si>
-  <si>
-    <t>http://data.uis.unesco.org/Index.aspx</t>
-  </si>
-  <si>
-    <t>United Nations Development Programme Human Development Data Online</t>
-  </si>
-  <si>
-    <t>UNDP</t>
-  </si>
-  <si>
-    <t>2021-22</t>
-  </si>
-  <si>
-    <t>http://hdr.undp.org/en/data</t>
-  </si>
-  <si>
-    <t>United Nations Statistics Division National Accounts</t>
-  </si>
-  <si>
-    <t>United Nations Statistics Division (UNSD)</t>
-  </si>
-  <si>
-    <t>Uploaded December 2023</t>
-  </si>
-  <si>
-    <t>https://unstats.un.org/unsd/snaama/</t>
-  </si>
-  <si>
-    <t>Wittgenstein Centre Human Capital Data Explorer</t>
-  </si>
-  <si>
-    <t>Wittgenstein Centre for Demography and Global Human Capital</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>https://dataexplorer.wittgensteincentre.org/wcde-v3/</t>
   </si>
   <si>
     <t>World Bank Enterprise Survey Microdata</t>
@@ -374,13 +368,22 @@
     <t>2023 Edition</t>
   </si>
   <si>
-    <t>https://www.worldbank.org/en/publication/wdr2023/data</t>
+    <t>www.worldbank.org/en/publication/wdr2023/data</t>
+  </si>
+  <si>
+    <t>World Bank International Debt Statistics (IDS)</t>
+  </si>
+  <si>
+    <t>21/09/2025</t>
+  </si>
+  <si>
+    <t>https://datacatalog.worldbank.org/search/dataset/0038015/International-Debt-Statistics</t>
   </si>
   <si>
     <t>World Development Indicators</t>
   </si>
   <si>
-    <t>Updated 18/12/2023</t>
+    <t>Updated 03/07/2025</t>
   </si>
   <si>
     <t>https://data.worldbank.org/products/wdi</t>
@@ -401,22 +404,22 @@
     <t>UNESCO Institute for Statistics</t>
   </si>
   <si>
-    <t>Retrieved 23/11/2023</t>
-  </si>
-  <si>
-    <t>https://www.education-inequalities.org/about</t>
-  </si>
-  <si>
-    <t>World Population Prospects 2022</t>
+    <t>Retrieved 22/09/2025</t>
+  </si>
+  <si>
+    <t>www.education-inequalities.org/indicators</t>
+  </si>
+  <si>
+    <t>World Population Prospects 2024</t>
   </si>
   <si>
     <t>United Nations, Department of Economic and Social Affairs, Population Division</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>https://population.un.org/wpp/Download/Standard/Population/</t>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>World Urbanization Prospects 2018</t>
@@ -425,20 +428,18 @@
     <t>https://population.un.org/wup/</t>
   </si>
   <si>
-    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2024</t>
-  </si>
-  <si>
-    <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
-  </si>
-  <si>
-    <t>TUN1t8pfav!2024!!!</t>
+    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
+  </si>
+  <si>
+    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -468,7 +469,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FFD42C2D"/>
+      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -484,8 +485,8 @@
       <b/>
       <i/>
       <u/>
-      <sz val="12"/>
-      <color rgb="FFD42C2D"/>
+      <sz val="11"/>
+      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -519,17 +520,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -539,20 +541,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{FBD63874-F0D5-47DC-8E5C-48BD929334A6}"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{459DD352-80A9-4552-BFAC-EB28AB65D974}"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -688,7 +694,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFBE3DB"/>
+          <bgColor rgb="FFCC9752"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -702,9 +708,9 @@
     </dxf>
     <dxf>
       <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
+        <left/>
+        <right/>
+        <top/>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -712,17 +718,17 @@
     </dxf>
     <dxf>
       <border>
-        <top style="thin">
-          <color auto="1"/>
+        <top style="thick">
+          <color rgb="FF663333"/>
         </top>
-        <bottom style="thin">
-          <color auto="1"/>
+        <bottom style="thick">
+          <color rgb="FF663333"/>
         </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{B69F9423-E52C-4AB8-B95C-44601F83F533}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{814FE0B7-810E-4F82-B9D9-91D2978EA6C9}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -739,103 +745,22 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E5894B-99D0-45EB-B989-B4389ADC7532}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="555625" y="190500"/>
-          <a:ext cx="8445500" cy="2936875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="5000"/>
-            <a:t>NB: THIS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="5000" baseline="0"/>
-            <a:t> IS A DUMMY FILE TO BE REPLACED LATER!</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="5000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D88CE44C-6C45-45B7-AC77-C72BB21F4226}" name="Table363" displayName="Table363" ref="B2:E36" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8399FD8-ACD0-463C-A465-6C250B370490}" name="Table363" displayName="Table363" ref="B2:E37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{599ADB4D-6936-4F9A-AB6C-D2E9C85E1766}" name="Sources" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{2B3D4CFE-D1A3-45FB-8034-32011B5BDBDC}" name="Organisation" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{81264B4B-B283-46B4-9AC7-A17243E7C42D}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{11BB5B88-3DDD-4382-B7DE-9EDE297E8642}" name="URL" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{60EFC3E5-6D02-4237-8795-798AA5490F2B}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{6BD1A9A6-2B48-490A-8AF0-586EB14A9E2B}" name="Organisation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4BD22965-CC3D-42E3-B5C0-C87A5F81F527}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{38BD12D0-2425-4F77-85A0-D4A99E7393C8}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -849,7 +774,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -861,7 +786,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -873,7 +798,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -908,23 +833,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -960,26 +868,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1121,30 +1012,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E8FEF0-D2F1-4936-8F67-E9956DAF15A6}">
-  <dimension ref="A1:E117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E2C4E0-F310-4DAD-92E9-D815A1C06D9B}">
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1043,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -1167,7 +1058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
         <v>5</v>
@@ -1182,7 +1073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="6" t="s">
         <v>9</v>
@@ -1197,7 +1088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="6" t="s">
         <v>13</v>
@@ -1212,7 +1103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="6" t="s">
         <v>17</v>
@@ -1227,7 +1118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="6" t="s">
         <v>21</v>
@@ -1242,7 +1133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
         <v>25</v>
@@ -1257,7 +1148,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>29</v>
@@ -1272,7 +1163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>33</v>
@@ -1287,7 +1178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>37</v>
@@ -1302,7 +1193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="6" t="s">
         <v>41</v>
@@ -1317,7 +1208,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="6" t="s">
         <v>45</v>
@@ -1332,7 +1223,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="6" t="s">
         <v>48</v>
@@ -1347,7 +1238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="6" t="s">
         <v>51</v>
@@ -1362,7 +1253,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
         <v>55</v>
@@ -1377,7 +1268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
         <v>59</v>
@@ -1392,7 +1283,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="6" t="s">
         <v>63</v>
@@ -1407,7 +1298,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="6" t="s">
         <v>67</v>
@@ -1422,7 +1313,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="6" t="s">
         <v>71</v>
@@ -1437,513 +1328,523 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="D22" s="7">
         <v>2020</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="7">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="7">
         <v>2018</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E37" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="D53" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
     </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1" xr:uid="{F9E30D0D-9B5A-4430-A659-BB496600CDAA}"/>
-    <hyperlink ref="B40" r:id="rId2" xr:uid="{09A93708-D9E4-489F-ADF8-47B4DB024C78}"/>
+    <hyperlink ref="B39" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please click here the visit the Africa's Development Dynamics website." xr:uid="{D6DE61C5-C038-4E1E-91ED-8F871073DE5D}"/>
+    <hyperlink ref="B41" r:id="rId2" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{9FCF37C1-7F67-430E-BF1B-DD89C072BC06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
-  <drawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/AfDD_2025_Annex_Table_Sources.xlsx
+++ b/AfDD_2025_Annex_Table_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A257CF63-A2B0-47F9-B1BC-0020010E5EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5627CB0D-B941-4EC6-96DE-6A77AC994633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{EFCD1BF5-344A-47D4-B96F-CEEECB30614E}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{499A191B-4A5D-4608-A458-ACB61A2D2A07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -299,13 +299,13 @@
     <t>http://unctadstat.unctad.org/wds/ReportFolders/reportFolders.aspx?sCS_ChosenLang=en</t>
   </si>
   <si>
-    <t>UNESCO Global Education Monitoring Report 2021/22</t>
+    <t>UNESCO Global Education Monitoring Report 2024/25</t>
   </si>
   <si>
     <t>UNESCO</t>
   </si>
   <si>
-    <t>2021</t>
+    <t>2024/25</t>
   </si>
   <si>
     <t>www.unesco.org/gem-report/en/non-state-actors</t>
@@ -557,7 +557,7 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{459DD352-80A9-4552-BFAC-EB28AB65D974}"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{D48C2FBD-1382-47CF-ADCE-E4B7DA037665}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -728,7 +728,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{814FE0B7-810E-4F82-B9D9-91D2978EA6C9}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{58B81656-D8B6-4E18-A7D2-7C3E9672789D}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -746,12 +746,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8399FD8-ACD0-463C-A465-6C250B370490}" name="Table363" displayName="Table363" ref="B2:E37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A330BBE-1D10-41BD-B9A6-2517CDA22546}" name="Table363" displayName="Table363" ref="B2:E37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{60EFC3E5-6D02-4237-8795-798AA5490F2B}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{6BD1A9A6-2B48-490A-8AF0-586EB14A9E2B}" name="Organisation" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{4BD22965-CC3D-42E3-B5C0-C87A5F81F527}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{38BD12D0-2425-4F77-85A0-D4A99E7393C8}" name="URL" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{5352BD96-6E4D-43C5-8F46-25943207E9AF}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{ACE8488E-4DD6-42AC-BDBA-A8ED88EA0C7F}" name="Organisation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{06497F2B-37F9-4BE5-A7CB-2F65CFE72AE5}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{6419E290-8723-4482-B6E2-268AE70D7221}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1019,7 +1019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E2C4E0-F310-4DAD-92E9-D815A1C06D9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2933C88C-B8C8-4388-981A-C1094E372692}">
   <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1835,8 +1835,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B39" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please click here the visit the Africa's Development Dynamics website." xr:uid="{D6DE61C5-C038-4E1E-91ED-8F871073DE5D}"/>
-    <hyperlink ref="B41" r:id="rId2" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{9FCF37C1-7F67-430E-BF1B-DD89C072BC06}"/>
+    <hyperlink ref="B41" r:id="rId1" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{E3EA671B-27C1-480E-8DE6-39C509740920}"/>
+    <hyperlink ref="B39" r:id="rId2" xr:uid="{3CC69044-5728-4504-AF7D-7091558B6193}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/AfDD_2025_Annex_Table_Sources.xlsx
+++ b/AfDD_2025_Annex_Table_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5627CB0D-B941-4EC6-96DE-6A77AC994633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6094945-B292-4B99-9ADC-F94ECC9D93C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{499A191B-4A5D-4608-A458-ACB61A2D2A07}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{16D8A746-F1A5-4580-BF0E-BA81C6D34569}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -557,7 +557,7 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{D48C2FBD-1382-47CF-ADCE-E4B7DA037665}"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{B0D52DE8-7FE0-414E-B2FE-1C10D963B7B9}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -728,7 +728,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{58B81656-D8B6-4E18-A7D2-7C3E9672789D}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{CE61EE4F-0102-4331-942F-382FB7AABE8D}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -746,12 +746,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A330BBE-1D10-41BD-B9A6-2517CDA22546}" name="Table363" displayName="Table363" ref="B2:E37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF0CF90E-5878-4085-9E88-7E597078B83F}" name="Table363" displayName="Table363" ref="B2:E37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{5352BD96-6E4D-43C5-8F46-25943207E9AF}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{ACE8488E-4DD6-42AC-BDBA-A8ED88EA0C7F}" name="Organisation" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{06497F2B-37F9-4BE5-A7CB-2F65CFE72AE5}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{6419E290-8723-4482-B6E2-268AE70D7221}" name="URL" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{50A4B647-C763-4D88-9B2D-5E1C70E6EBB7}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{857E6607-1667-4181-97D1-64A9CDEDFC6A}" name="Organisation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{2CF6F1E4-12AD-4C34-8DA6-04217F804353}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{10BB33B7-EC8D-49EB-A2A7-DD775E726422}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1019,7 +1019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2933C88C-B8C8-4388-981A-C1094E372692}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5CD797-DFE1-41E9-9B77-7EDFB7FC6C1F}">
   <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1835,8 +1835,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B41" r:id="rId1" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{E3EA671B-27C1-480E-8DE6-39C509740920}"/>
-    <hyperlink ref="B39" r:id="rId2" xr:uid="{3CC69044-5728-4504-AF7D-7091558B6193}"/>
+    <hyperlink ref="B41" r:id="rId1" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{0764398E-6540-457C-9E97-E9BC2F389B15}"/>
+    <hyperlink ref="B39" r:id="rId2" xr:uid="{85C0F6D5-5CC5-44C0-BB54-0F8E4C12C410}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/AfDD_2025_Annex_Table_Sources.xlsx
+++ b/AfDD_2025_Annex_Table_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6094945-B292-4B99-9ADC-F94ECC9D93C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E78431F-CD08-4FF1-95DC-58E19AA8BF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{16D8A746-F1A5-4580-BF0E-BA81C6D34569}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{6BB99689-97E6-4611-8466-52B5DD3926B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -557,7 +557,7 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{B0D52DE8-7FE0-414E-B2FE-1C10D963B7B9}"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{1E6C6332-DCFE-4D78-91EE-0DA399558B67}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -728,7 +728,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{CE61EE4F-0102-4331-942F-382FB7AABE8D}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{7669A076-EBC3-405E-A685-A2BB611CAFBE}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -746,12 +746,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF0CF90E-5878-4085-9E88-7E597078B83F}" name="Table363" displayName="Table363" ref="B2:E37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDF2C76C-3F1A-48FE-834C-131498A0AF88}" name="Table363" displayName="Table363" ref="B2:E37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{50A4B647-C763-4D88-9B2D-5E1C70E6EBB7}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{857E6607-1667-4181-97D1-64A9CDEDFC6A}" name="Organisation" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{2CF6F1E4-12AD-4C34-8DA6-04217F804353}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{10BB33B7-EC8D-49EB-A2A7-DD775E726422}" name="URL" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{7F22DCB6-6657-42F1-A0F6-7A8ACFC18FE0}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{4BE34748-5B64-4301-A339-3E27DBE4F8FC}" name="Organisation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{AB090489-C392-413A-A3A8-25D26C4CA864}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{8D1CDB3C-CD82-4328-867D-59AD5B3BB21C}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1019,7 +1019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5CD797-DFE1-41E9-9B77-7EDFB7FC6C1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEA26B4-3530-4A7C-BF18-53807059F282}">
   <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1835,8 +1835,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B41" r:id="rId1" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{0764398E-6540-457C-9E97-E9BC2F389B15}"/>
-    <hyperlink ref="B39" r:id="rId2" xr:uid="{85C0F6D5-5CC5-44C0-BB54-0F8E4C12C410}"/>
+    <hyperlink ref="B41" r:id="rId1" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{48362B5C-5CE5-4053-B9F6-1A386DF921DE}"/>
+    <hyperlink ref="B39" r:id="rId2" xr:uid="{66F70771-95D3-4A8D-886F-97F1C95A0176}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/AfDD_2025_Annex_Table_Sources.xlsx
+++ b/AfDD_2025_Annex_Table_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E78431F-CD08-4FF1-95DC-58E19AA8BF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3796843F-17B8-4513-966A-B73FE6558934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{6BB99689-97E6-4611-8466-52B5DD3926B0}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{6AB7D08D-6E16-4D88-86C0-3CDBE1C79DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="143">
   <si>
     <t>List of sources</t>
   </si>
@@ -86,6 +86,18 @@
     <t>https://data360.worldbank.org/en/dataset/WB_CWON</t>
   </si>
   <si>
+    <t>EDGAR Community GHG Database</t>
+  </si>
+  <si>
+    <t>European Commission, Joint Research Centre (JRC) and the International Energy Agency (IEA)</t>
+  </si>
+  <si>
+    <t>2025 Edition</t>
+  </si>
+  <si>
+    <t>https://edgar.jrc.ec.europa.eu/report_2025</t>
+  </si>
+  <si>
     <t>ESCAP-World Bank Trade Cost Database</t>
   </si>
   <si>
@@ -158,31 +170,49 @@
     <t>www.gsmaintelligence.com/data/</t>
   </si>
   <si>
-    <t>IMF Balance of Paytments and International Investment Position Statistics (IMF/IIP)</t>
+    <t>IMF Balance of Payments (BOP) Dataset</t>
   </si>
   <si>
     <t>International Monetary Fund (IMF)</t>
   </si>
   <si>
-    <t>Publication date 12/09/2025</t>
-  </si>
-  <si>
-    <t>https://data.imf.org/en/Search-Results#q=icsd&amp;t=coveob02de888&amp;sort=relevancy</t>
-  </si>
-  <si>
-    <t>IMF Investment and Capital Stock (ICSD)</t>
+    <t>Accessed on 27/10/2025</t>
+  </si>
+  <si>
+    <t>https://data.imf.org/en/datasets/IMF.STA:BOP</t>
+  </si>
+  <si>
+    <t>IMF Balance of Payments and International Investment Position Statistics (BOP/IIP)</t>
+  </si>
+  <si>
+    <t>Accessed on 02/10/2025</t>
+  </si>
+  <si>
+    <t>https://data.imf.org/en/datasets/IMF.STA:BOP_AGG</t>
+  </si>
+  <si>
+    <t>IMF International Investment Position (IIP) Dataset</t>
+  </si>
+  <si>
+    <t>Accessed on 28/10/2025</t>
+  </si>
+  <si>
+    <t>https://data.imf.org/en/datasets/IMF.STA:IIP</t>
+  </si>
+  <si>
+    <t>IMF Investment and Capital Stock (ICSD) Dataset</t>
   </si>
   <si>
     <t>Updated 27/10/2023</t>
   </si>
   <si>
-    <t>https://data.imf.org/?sk=1CE8A55F-CFA7-4BC0-BCE2-256EE65AC0E4</t>
+    <t>https://data.imf.org/en/datasets/IMF.FAD:ICSD</t>
   </si>
   <si>
     <t>IMF World Economic Outlook Database</t>
   </si>
   <si>
-    <t>April 2024</t>
+    <t>October 2025</t>
   </si>
   <si>
     <t>www.imf.org/en/Publications/WEO/weo-database/2024/April</t>
@@ -353,13 +383,13 @@
     <t>https://dataexplorer.wittgensteincentre.org/wcde-v3/</t>
   </si>
   <si>
-    <t>World Bank Enterprise Survey Microdata</t>
-  </si>
-  <si>
-    <t>Retrieved April 2020</t>
-  </si>
-  <si>
-    <t>https://microdata.worldbank.org/index.php/catalog/enterprise_surveys/about</t>
+    <t>World Bank Enterprise Survey</t>
+  </si>
+  <si>
+    <t>Retrieved 19/09/2025</t>
+  </si>
+  <si>
+    <t>https://www.enterprisesurveys.org/en/data</t>
   </si>
   <si>
     <t>World Bank Global Bilateral Migration Matrix (WBGBMM)</t>
@@ -557,7 +587,7 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{1E6C6332-DCFE-4D78-91EE-0DA399558B67}"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{A70095EE-081A-497D-868A-512000DF170F}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -728,7 +758,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{7669A076-EBC3-405E-A685-A2BB611CAFBE}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{001A36D4-B4B7-4900-91C1-B6277B02A4FC}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -746,12 +776,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDF2C76C-3F1A-48FE-834C-131498A0AF88}" name="Table363" displayName="Table363" ref="B2:E37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{837DEDF7-9F17-4933-A8D3-81282638B430}" name="Table363" displayName="Table363" ref="B2:E40" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{7F22DCB6-6657-42F1-A0F6-7A8ACFC18FE0}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{4BE34748-5B64-4301-A339-3E27DBE4F8FC}" name="Organisation" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{AB090489-C392-413A-A3A8-25D26C4CA864}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{8D1CDB3C-CD82-4328-867D-59AD5B3BB21C}" name="URL" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{700EF989-2533-4C81-A5CD-2D473439AE66}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{1555A4B4-7B90-446C-A7CA-843957DDD8A8}" name="Organisation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{92F50C26-CBDF-426F-8552-ACC3872A5798}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{5F1C5E0E-5D2B-4817-AC00-ACBB105F9B6B}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1019,23 +1049,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEA26B4-3530-4A7C-BF18-53807059F282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62F9E6A-9110-4402-B76A-991AB37065FA}">
   <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1073,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -1058,7 +1088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
         <v>5</v>
@@ -1073,7 +1103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="6" t="s">
         <v>9</v>
@@ -1088,7 +1118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="6" t="s">
         <v>13</v>
@@ -1103,7 +1133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="6" t="s">
         <v>17</v>
@@ -1118,7 +1148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="6" t="s">
         <v>21</v>
@@ -1133,7 +1163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
         <v>25</v>
@@ -1148,7 +1178,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>29</v>
@@ -1163,7 +1193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>33</v>
@@ -1178,7 +1208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>37</v>
@@ -1193,7 +1223,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="6" t="s">
         <v>41</v>
@@ -1208,43 +1238,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>53</v>
@@ -1253,112 +1283,112 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="6" t="s">
+    </row>
+    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="7" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="7" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="7" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D22" s="7">
-        <v>2020</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
         <v>81</v>
@@ -1373,13 +1403,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>86</v>
@@ -1388,7 +1418,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
         <v>88</v>
@@ -1396,20 +1426,20 @@
       <c r="C25" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="7">
+        <v>2020</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>93</v>
@@ -1418,22 +1448,22 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
         <v>98</v>
@@ -1448,43 +1478,43 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>110</v>
@@ -1493,58 +1523,58 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>123</v>
@@ -1553,290 +1583,326 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="6" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="7">
-        <v>2018</v>
+      <c r="D37" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
-      <c r="B39" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2018</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
-      <c r="B41" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B41" r:id="rId1" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{48362B5C-5CE5-4053-B9F6-1A386DF921DE}"/>
-    <hyperlink ref="B39" r:id="rId2" xr:uid="{66F70771-95D3-4A8D-886F-97F1C95A0176}"/>
+    <hyperlink ref="B44" r:id="rId1" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{615E9A07-406A-41D4-B567-BE3051029E42}"/>
+    <hyperlink ref="B42" r:id="rId2" xr:uid="{64FB0D4E-43F6-4F56-A234-3193EF0320EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/AfDD_2025_Annex_Table_Sources.xlsx
+++ b/AfDD_2025_Annex_Table_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3796843F-17B8-4513-966A-B73FE6558934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B7F6EB-2474-40C5-AC57-982E3412AB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{6AB7D08D-6E16-4D88-86C0-3CDBE1C79DA1}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{B87C4ABD-98B9-46E1-A6E5-874DB18EEA27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +512,12 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <u/>
@@ -542,7 +548,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FFD42C2D"/>
+        <color rgb="FF663333"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -556,17 +562,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -583,11 +592,14 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{A70095EE-081A-497D-868A-512000DF170F}"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{6EFF20E0-9C86-4261-8591-A874138C0E63}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -758,7 +770,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{001A36D4-B4B7-4900-91C1-B6277B02A4FC}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{2FABD708-0F8B-4EC7-9779-C805B01B418E}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -776,12 +788,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{837DEDF7-9F17-4933-A8D3-81282638B430}" name="Table363" displayName="Table363" ref="B2:E40" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{889250A3-2BAD-4482-9175-403F8415E012}" name="Table363" displayName="Table363" ref="B2:E40" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{700EF989-2533-4C81-A5CD-2D473439AE66}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{1555A4B4-7B90-446C-A7CA-843957DDD8A8}" name="Organisation" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{92F50C26-CBDF-426F-8552-ACC3872A5798}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{5F1C5E0E-5D2B-4817-AC00-ACBB105F9B6B}" name="URL" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{2830F5E0-E9E5-4464-85E3-37F76B8BB115}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{5019E8AD-3794-459D-AE67-21E78391AA64}" name="Organisation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A498BFE1-25D8-4910-A0E3-150D615574AC}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{84F70817-41ED-4986-A5A3-3B67D4F9695C}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1049,7 +1061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62F9E6A-9110-4402-B76A-991AB37065FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8938496-0EE4-4A2F-80F4-15BD8B774744}">
   <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1058,7 +1070,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="12" customWidth="1"/>
     <col min="2" max="2" width="58.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.81640625" bestFit="1" customWidth="1"/>
@@ -1066,843 +1078,844 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="8">
         <v>2020</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="1"/>
+      <c r="B28" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="1"/>
+      <c r="B32" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="1"/>
+      <c r="B33" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="1"/>
+      <c r="B34" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="4"/>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="1"/>
+      <c r="B36" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="1"/>
+      <c r="B37" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="1"/>
+      <c r="B38" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="4"/>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="1"/>
+      <c r="B39" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="4"/>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="1"/>
+      <c r="B40" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="8">
         <v>2018</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="4"/>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="4"/>
-      <c r="B42" s="10" t="s">
+      <c r="A42" s="1"/>
+      <c r="B42" s="11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="4"/>
+      <c r="A43" s="1"/>
       <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="4"/>
+      <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="4"/>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="4"/>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="4"/>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="4"/>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4"/>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="4"/>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="4"/>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="4"/>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="4"/>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="4"/>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4"/>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="4"/>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="4"/>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="4"/>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="4"/>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="4"/>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="4"/>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="4"/>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="4"/>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="4"/>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="4"/>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="4"/>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="4"/>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="4"/>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="4"/>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="4"/>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="4"/>
+      <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="4"/>
+      <c r="A72" s="1"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="4"/>
+      <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="4"/>
+      <c r="A74" s="1"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="4"/>
+      <c r="A75" s="1"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="4"/>
+      <c r="A76" s="1"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="4"/>
+      <c r="A77" s="1"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="4"/>
+      <c r="A78" s="1"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="4"/>
+      <c r="A79" s="1"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="4"/>
+      <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="4"/>
+      <c r="A81" s="1"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="4"/>
+      <c r="A82" s="1"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="4"/>
+      <c r="A83" s="1"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="4"/>
+      <c r="A84" s="1"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="4"/>
+      <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="4"/>
+      <c r="A86" s="1"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="4"/>
+      <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="4"/>
+      <c r="A88" s="1"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="4"/>
+      <c r="A89" s="1"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="4"/>
+      <c r="A90" s="1"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="4"/>
+      <c r="A91" s="1"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="4"/>
+      <c r="A92" s="1"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="4"/>
+      <c r="A93" s="1"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="4"/>
+      <c r="A94" s="1"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="4"/>
+      <c r="A95" s="1"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="4"/>
+      <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="4"/>
+      <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="4"/>
+      <c r="A98" s="1"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="4"/>
+      <c r="A99" s="1"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="4"/>
+      <c r="A100" s="1"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="4"/>
+      <c r="A101" s="1"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="4"/>
+      <c r="A102" s="1"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="4"/>
+      <c r="A103" s="1"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="4"/>
+      <c r="A104" s="1"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="4"/>
+      <c r="A105" s="1"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="4"/>
+      <c r="A106" s="1"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="4"/>
+      <c r="A107" s="1"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="4"/>
+      <c r="A108" s="1"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="4"/>
+      <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="4"/>
+      <c r="A110" s="1"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="4"/>
+      <c r="A111" s="1"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="4"/>
+      <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="4"/>
+      <c r="A113" s="1"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="4"/>
+      <c r="A114" s="1"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="4"/>
+      <c r="A115" s="1"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="4"/>
+      <c r="A116" s="1"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="4"/>
+      <c r="A117" s="1"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="4"/>
+      <c r="A118" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B44" r:id="rId1" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{615E9A07-406A-41D4-B567-BE3051029E42}"/>
-    <hyperlink ref="B42" r:id="rId2" xr:uid="{64FB0D4E-43F6-4F56-A234-3193EF0320EE}"/>
+    <hyperlink ref="B44" r:id="rId1" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{B5796656-D687-4703-8327-AEC19059CE00}"/>
+    <hyperlink ref="B42" r:id="rId2" xr:uid="{A22FC13C-ED37-46E7-B694-76B82945E73C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
